--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc202_SWT_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc202_SWT_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3288" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7672" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -138,11 +158,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -165,26 +189,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true">
-      <c r="A1" t="s" s="3">
+    <row r="1" s="7" customFormat="true">
+      <c r="A1" t="s" s="7">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" t="s" s="7">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" t="s" s="7">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" t="s" s="7">
         <v>7</v>
       </c>
     </row>
@@ -212,28 +236,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="3">
+      <c r="A3" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="3">
+      <c r="C3" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="3">
+      <c r="E3" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="3">
+      <c r="F3" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="3">
+      <c r="G3" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="3">
+      <c r="H3" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -258,28 +282,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="3">
+      <c r="B5" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="3">
+      <c r="C5" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="3">
+      <c r="D5" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="3">
+      <c r="E5" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="3">
+      <c r="F5" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="3">
+      <c r="G5" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="3">
+      <c r="H5" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="3">
+      <c r="I5" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1208,10 +1232,10 @@
       <c r="I37">
         <f>((C37-C36)^2+(D37- D36)^2)^.5</f>
       </c>
-      <c r="J37" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K37" s="3" t="s">
+      <c r="J37" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L37" t="n">
@@ -1255,28 +1279,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="3">
+      <c r="A39" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B39" t="s" s="3">
+      <c r="B39" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C39" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D39" t="s" s="3">
+      <c r="C39" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E39" t="s" s="3">
+      <c r="E39" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F39" t="s" s="3">
+      <c r="F39" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G39" t="s" s="3">
+      <c r="G39" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H39" t="s" s="3">
+      <c r="H39" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1301,28 +1325,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="B41" t="s" s="3">
+      <c r="B41" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C41" t="s" s="3">
+      <c r="C41" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D41" t="s" s="3">
+      <c r="D41" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E41" t="s" s="3">
+      <c r="E41" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F41" t="s" s="3">
+      <c r="F41" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G41" t="s" s="3">
+      <c r="G41" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H41" t="s" s="3">
+      <c r="H41" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I41" t="s" s="3">
+      <c r="I41" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1526,10 +1550,10 @@
       <c r="I48">
         <f>((C48-C47)^2+(D48- D47)^2)^.5</f>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K48" s="3" t="s">
+      <c r="J48" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L48" t="n">
@@ -1573,28 +1597,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="3">
+      <c r="A50" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B50" t="s" s="3">
+      <c r="B50" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C50" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D50" t="s" s="3">
+      <c r="C50" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E50" t="s" s="3">
+      <c r="E50" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F50" t="s" s="3">
+      <c r="F50" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G50" t="s" s="3">
+      <c r="G50" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H50" t="s" s="3">
+      <c r="H50" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1619,28 +1643,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="B52" t="s" s="3">
+      <c r="B52" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C52" t="s" s="3">
+      <c r="C52" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D52" t="s" s="3">
+      <c r="D52" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E52" t="s" s="3">
+      <c r="E52" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F52" t="s" s="3">
+      <c r="F52" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G52" t="s" s="3">
+      <c r="G52" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H52" t="s" s="3">
+      <c r="H52" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I52" t="s" s="3">
+      <c r="I52" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1699,10 +1723,10 @@
       <c r="I54">
         <f>((C54-C53)^2+(D54- D53)^2)^.5</f>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K54" s="3" t="s">
+      <c r="J54" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K54" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L54" t="n">
@@ -1746,28 +1770,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s" s="3">
+      <c r="A56" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B56" t="s" s="3">
+      <c r="B56" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C56" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D56" t="s" s="3">
+      <c r="C56" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E56" t="s" s="3">
+      <c r="E56" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F56" t="s" s="3">
+      <c r="F56" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G56" t="s" s="3">
+      <c r="G56" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H56" t="s" s="3">
+      <c r="H56" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1792,28 +1816,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="B58" t="s" s="3">
+      <c r="B58" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C58" t="s" s="3">
+      <c r="C58" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D58" t="s" s="3">
+      <c r="D58" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E58" t="s" s="3">
+      <c r="E58" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F58" t="s" s="3">
+      <c r="F58" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G58" t="s" s="3">
+      <c r="G58" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H58" t="s" s="3">
+      <c r="H58" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I58" t="s" s="3">
+      <c r="I58" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1872,10 +1896,10 @@
       <c r="I60">
         <f>((C60-C59)^2+(D60- D59)^2)^.5</f>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K60" s="3" t="s">
+      <c r="J60" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K60" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L60" t="n">
@@ -1919,28 +1943,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="s" s="3">
+      <c r="A62" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B62" t="s" s="3">
+      <c r="B62" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C62" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D62" t="s" s="3">
+      <c r="C62" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D62" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E62" t="s" s="3">
+      <c r="E62" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F62" t="s" s="3">
+      <c r="F62" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G62" t="s" s="3">
+      <c r="G62" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H62" t="s" s="3">
+      <c r="H62" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1965,28 +1989,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="B64" t="s" s="3">
+      <c r="B64" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C64" t="s" s="3">
+      <c r="C64" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D64" t="s" s="3">
+      <c r="D64" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E64" t="s" s="3">
+      <c r="E64" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F64" t="s" s="3">
+      <c r="F64" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G64" t="s" s="3">
+      <c r="G64" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H64" t="s" s="3">
+      <c r="H64" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I64" t="s" s="3">
+      <c r="I64" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2103,10 +2127,10 @@
       <c r="I68">
         <f>((C68-C67)^2+(D68- D67)^2)^.5</f>
       </c>
-      <c r="J68" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K68" s="3" t="s">
+      <c r="J68" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K68" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L68" t="n">
@@ -2150,28 +2174,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="s" s="3">
+      <c r="A70" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B70" t="s" s="3">
+      <c r="B70" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C70" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D70" t="s" s="3">
+      <c r="C70" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D70" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E70" t="s" s="3">
+      <c r="E70" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F70" t="s" s="3">
+      <c r="F70" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G70" t="s" s="3">
+      <c r="G70" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H70" t="s" s="3">
+      <c r="H70" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2196,28 +2220,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="B72" t="s" s="3">
+      <c r="B72" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C72" t="s" s="3">
+      <c r="C72" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D72" t="s" s="3">
+      <c r="D72" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E72" t="s" s="3">
+      <c r="E72" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F72" t="s" s="3">
+      <c r="F72" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G72" t="s" s="3">
+      <c r="G72" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H72" t="s" s="3">
+      <c r="H72" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I72" t="s" s="3">
+      <c r="I72" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2276,10 +2300,10 @@
       <c r="I74">
         <f>((C74-C73)^2+(D74- D73)^2)^.5</f>
       </c>
-      <c r="J74" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K74" s="3" t="s">
+      <c r="J74" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K74" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L74" t="n">
@@ -2323,28 +2347,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s" s="3">
+      <c r="A76" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B76" t="s" s="3">
+      <c r="B76" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C76" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D76" t="s" s="3">
+      <c r="C76" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D76" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E76" t="s" s="3">
+      <c r="E76" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F76" t="s" s="3">
+      <c r="F76" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G76" t="s" s="3">
+      <c r="G76" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H76" t="s" s="3">
+      <c r="H76" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2369,28 +2393,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="B78" t="s" s="3">
+      <c r="B78" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C78" t="s" s="3">
+      <c r="C78" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D78" t="s" s="3">
+      <c r="D78" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E78" t="s" s="3">
+      <c r="E78" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F78" t="s" s="3">
+      <c r="F78" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G78" t="s" s="3">
+      <c r="G78" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H78" t="s" s="3">
+      <c r="H78" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I78" t="s" s="3">
+      <c r="I78" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2449,10 +2473,10 @@
       <c r="I80">
         <f>((C80-C79)^2+(D80- D79)^2)^.5</f>
       </c>
-      <c r="J80" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K80" s="3" t="s">
+      <c r="J80" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K80" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L80" t="n">
@@ -2496,28 +2520,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="s" s="3">
+      <c r="A82" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B82" t="s" s="3">
+      <c r="B82" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C82" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D82" t="s" s="3">
+      <c r="C82" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D82" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E82" t="s" s="3">
+      <c r="E82" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F82" t="s" s="3">
+      <c r="F82" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G82" t="s" s="3">
+      <c r="G82" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H82" t="s" s="3">
+      <c r="H82" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2542,28 +2566,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="B84" t="s" s="3">
+      <c r="B84" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C84" t="s" s="3">
+      <c r="C84" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D84" t="s" s="3">
+      <c r="D84" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E84" t="s" s="3">
+      <c r="E84" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F84" t="s" s="3">
+      <c r="F84" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G84" t="s" s="3">
+      <c r="G84" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H84" t="s" s="3">
+      <c r="H84" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I84" t="s" s="3">
+      <c r="I84" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2622,10 +2646,10 @@
       <c r="I86">
         <f>((C86-C85)^2+(D86- D85)^2)^.5</f>
       </c>
-      <c r="J86" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K86" s="3" t="s">
+      <c r="J86" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K86" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L86" t="n">
@@ -2669,28 +2693,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="s" s="3">
+      <c r="A88" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B88" t="s" s="3">
+      <c r="B88" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C88" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D88" t="s" s="3">
+      <c r="C88" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D88" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E88" t="s" s="3">
+      <c r="E88" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F88" t="s" s="3">
+      <c r="F88" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G88" t="s" s="3">
+      <c r="G88" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H88" t="s" s="3">
+      <c r="H88" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2715,28 +2739,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="B90" t="s" s="3">
+      <c r="B90" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C90" t="s" s="3">
+      <c r="C90" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D90" t="s" s="3">
+      <c r="D90" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E90" t="s" s="3">
+      <c r="E90" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F90" t="s" s="3">
+      <c r="F90" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G90" t="s" s="3">
+      <c r="G90" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H90" t="s" s="3">
+      <c r="H90" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I90" t="s" s="3">
+      <c r="I90" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2795,10 +2819,10 @@
       <c r="I92">
         <f>((C92-C91)^2+(D92- D91)^2)^.5</f>
       </c>
-      <c r="J92" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K92" s="3" t="s">
+      <c r="J92" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K92" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L92" t="n">
@@ -2842,28 +2866,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="s" s="3">
+      <c r="A94" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B94" t="s" s="3">
+      <c r="B94" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C94" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D94" t="s" s="3">
+      <c r="C94" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E94" t="s" s="3">
+      <c r="E94" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F94" t="s" s="3">
+      <c r="F94" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G94" t="s" s="3">
+      <c r="G94" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H94" t="s" s="3">
+      <c r="H94" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2888,28 +2912,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="B96" t="s" s="3">
+      <c r="B96" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C96" t="s" s="3">
+      <c r="C96" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D96" t="s" s="3">
+      <c r="D96" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E96" t="s" s="3">
+      <c r="E96" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F96" t="s" s="3">
+      <c r="F96" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G96" t="s" s="3">
+      <c r="G96" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H96" t="s" s="3">
+      <c r="H96" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I96" t="s" s="3">
+      <c r="I96" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2968,10 +2992,10 @@
       <c r="I98">
         <f>((C98-C97)^2+(D98- D97)^2)^.5</f>
       </c>
-      <c r="J98" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K98" s="3" t="s">
+      <c r="J98" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K98" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L98" t="n">
@@ -3015,28 +3039,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="s" s="3">
+      <c r="A100" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B100" t="s" s="3">
+      <c r="B100" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C100" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D100" t="s" s="3">
+      <c r="C100" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D100" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E100" t="s" s="3">
+      <c r="E100" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F100" t="s" s="3">
+      <c r="F100" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G100" t="s" s="3">
+      <c r="G100" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H100" t="s" s="3">
+      <c r="H100" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3061,28 +3085,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="B102" t="s" s="3">
+      <c r="B102" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C102" t="s" s="3">
+      <c r="C102" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D102" t="s" s="3">
+      <c r="D102" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E102" t="s" s="3">
+      <c r="E102" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F102" t="s" s="3">
+      <c r="F102" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G102" t="s" s="3">
+      <c r="G102" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H102" t="s" s="3">
+      <c r="H102" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I102" t="s" s="3">
+      <c r="I102" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3141,10 +3165,10 @@
       <c r="I104">
         <f>((C104-C103)^2+(D104- D103)^2)^.5</f>
       </c>
-      <c r="J104" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K104" s="3" t="s">
+      <c r="J104" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K104" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L104" t="n">
@@ -3188,28 +3212,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="s" s="3">
+      <c r="A106" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B106" t="s" s="3">
+      <c r="B106" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C106" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D106" t="s" s="3">
+      <c r="C106" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D106" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E106" t="s" s="3">
+      <c r="E106" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F106" t="s" s="3">
+      <c r="F106" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G106" t="s" s="3">
+      <c r="G106" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H106" t="s" s="3">
+      <c r="H106" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3234,28 +3258,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="B108" t="s" s="3">
+      <c r="B108" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C108" t="s" s="3">
+      <c r="C108" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D108" t="s" s="3">
+      <c r="D108" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E108" t="s" s="3">
+      <c r="E108" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F108" t="s" s="3">
+      <c r="F108" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G108" t="s" s="3">
+      <c r="G108" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H108" t="s" s="3">
+      <c r="H108" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I108" t="s" s="3">
+      <c r="I108" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3314,10 +3338,10 @@
       <c r="I110">
         <f>((C110-C109)^2+(D110- D109)^2)^.5</f>
       </c>
-      <c r="J110" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K110" s="3" t="s">
+      <c r="J110" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K110" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L110" t="n">
@@ -3361,28 +3385,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="s" s="3">
+      <c r="A112" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B112" t="s" s="3">
+      <c r="B112" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C112" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D112" t="s" s="3">
+      <c r="C112" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D112" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E112" t="s" s="3">
+      <c r="E112" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F112" t="s" s="3">
+      <c r="F112" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G112" t="s" s="3">
+      <c r="G112" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H112" t="s" s="3">
+      <c r="H112" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3407,28 +3431,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="B114" t="s" s="3">
+      <c r="B114" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C114" t="s" s="3">
+      <c r="C114" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D114" t="s" s="3">
+      <c r="D114" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E114" t="s" s="3">
+      <c r="E114" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F114" t="s" s="3">
+      <c r="F114" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G114" t="s" s="3">
+      <c r="G114" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H114" t="s" s="3">
+      <c r="H114" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I114" t="s" s="3">
+      <c r="I114" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3487,10 +3511,10 @@
       <c r="I116">
         <f>((C116-C115)^2+(D116- D115)^2)^.5</f>
       </c>
-      <c r="J116" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K116" s="3" t="s">
+      <c r="J116" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K116" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L116" t="n">
@@ -3534,28 +3558,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="s" s="3">
+      <c r="A118" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B118" t="s" s="3">
+      <c r="B118" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C118" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D118" t="s" s="3">
+      <c r="C118" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D118" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E118" t="s" s="3">
+      <c r="E118" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F118" t="s" s="3">
+      <c r="F118" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G118" t="s" s="3">
+      <c r="G118" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H118" t="s" s="3">
+      <c r="H118" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3580,28 +3604,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="B120" t="s" s="3">
+      <c r="B120" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C120" t="s" s="3">
+      <c r="C120" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D120" t="s" s="3">
+      <c r="D120" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E120" t="s" s="3">
+      <c r="E120" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F120" t="s" s="3">
+      <c r="F120" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G120" t="s" s="3">
+      <c r="G120" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H120" t="s" s="3">
+      <c r="H120" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I120" t="s" s="3">
+      <c r="I120" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3660,10 +3684,10 @@
       <c r="I122">
         <f>((C122-C121)^2+(D122- D121)^2)^.5</f>
       </c>
-      <c r="J122" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K122" s="3" t="s">
+      <c r="J122" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K122" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L122" t="n">
@@ -3707,28 +3731,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="s" s="3">
+      <c r="A124" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B124" t="s" s="3">
+      <c r="B124" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C124" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D124" t="s" s="3">
+      <c r="C124" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D124" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E124" t="s" s="3">
+      <c r="E124" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F124" t="s" s="3">
+      <c r="F124" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G124" t="s" s="3">
+      <c r="G124" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H124" t="s" s="3">
+      <c r="H124" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3753,28 +3777,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="B126" t="s" s="3">
+      <c r="B126" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C126" t="s" s="3">
+      <c r="C126" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D126" t="s" s="3">
+      <c r="D126" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E126" t="s" s="3">
+      <c r="E126" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F126" t="s" s="3">
+      <c r="F126" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G126" t="s" s="3">
+      <c r="G126" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H126" t="s" s="3">
+      <c r="H126" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I126" t="s" s="3">
+      <c r="I126" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3833,10 +3857,10 @@
       <c r="I128">
         <f>((C128-C127)^2+(D128- D127)^2)^.5</f>
       </c>
-      <c r="J128" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K128" s="3" t="s">
+      <c r="J128" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K128" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L128" t="n">
@@ -3880,28 +3904,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="s" s="3">
+      <c r="A130" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B130" t="s" s="3">
+      <c r="B130" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C130" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D130" t="s" s="3">
+      <c r="C130" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D130" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E130" t="s" s="3">
+      <c r="E130" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F130" t="s" s="3">
+      <c r="F130" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G130" t="s" s="3">
+      <c r="G130" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H130" t="s" s="3">
+      <c r="H130" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3926,28 +3950,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="B132" t="s" s="3">
+      <c r="B132" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C132" t="s" s="3">
+      <c r="C132" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D132" t="s" s="3">
+      <c r="D132" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E132" t="s" s="3">
+      <c r="E132" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F132" t="s" s="3">
+      <c r="F132" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G132" t="s" s="3">
+      <c r="G132" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H132" t="s" s="3">
+      <c r="H132" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I132" t="s" s="3">
+      <c r="I132" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4006,10 +4030,10 @@
       <c r="I134">
         <f>((C134-C133)^2+(D134- D133)^2)^.5</f>
       </c>
-      <c r="J134" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K134" s="3" t="s">
+      <c r="J134" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K134" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L134" t="n">
@@ -4053,28 +4077,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="s" s="3">
+      <c r="A136" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B136" t="s" s="3">
+      <c r="B136" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C136" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D136" t="s" s="3">
+      <c r="C136" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D136" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E136" t="s" s="3">
+      <c r="E136" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F136" t="s" s="3">
+      <c r="F136" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G136" t="s" s="3">
+      <c r="G136" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H136" t="s" s="3">
+      <c r="H136" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4099,28 +4123,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="B138" t="s" s="3">
+      <c r="B138" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C138" t="s" s="3">
+      <c r="C138" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D138" t="s" s="3">
+      <c r="D138" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E138" t="s" s="3">
+      <c r="E138" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F138" t="s" s="3">
+      <c r="F138" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G138" t="s" s="3">
+      <c r="G138" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H138" t="s" s="3">
+      <c r="H138" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I138" t="s" s="3">
+      <c r="I138" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4179,10 +4203,10 @@
       <c r="I140">
         <f>((C140-C139)^2+(D140- D139)^2)^.5</f>
       </c>
-      <c r="J140" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K140" s="3" t="s">
+      <c r="J140" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K140" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L140" t="n">
@@ -4226,28 +4250,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="s" s="3">
+      <c r="A142" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B142" t="s" s="3">
+      <c r="B142" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C142" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D142" t="s" s="3">
+      <c r="C142" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D142" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E142" t="s" s="3">
+      <c r="E142" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F142" t="s" s="3">
+      <c r="F142" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G142" t="s" s="3">
+      <c r="G142" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H142" t="s" s="3">
+      <c r="H142" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4272,28 +4296,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="B144" t="s" s="3">
+      <c r="B144" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C144" t="s" s="3">
+      <c r="C144" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D144" t="s" s="3">
+      <c r="D144" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E144" t="s" s="3">
+      <c r="E144" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F144" t="s" s="3">
+      <c r="F144" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G144" t="s" s="3">
+      <c r="G144" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H144" t="s" s="3">
+      <c r="H144" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I144" t="s" s="3">
+      <c r="I144" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4352,10 +4376,10 @@
       <c r="I146">
         <f>((C146-C145)^2+(D146- D145)^2)^.5</f>
       </c>
-      <c r="J146" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K146" s="3" t="s">
+      <c r="J146" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K146" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L146" t="n">
@@ -4399,28 +4423,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="s" s="3">
+      <c r="A148" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B148" t="s" s="3">
+      <c r="B148" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C148" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D148" t="s" s="3">
+      <c r="C148" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D148" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E148" t="s" s="3">
+      <c r="E148" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F148" t="s" s="3">
+      <c r="F148" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G148" t="s" s="3">
+      <c r="G148" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H148" t="s" s="3">
+      <c r="H148" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4445,28 +4469,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="B150" t="s" s="3">
+      <c r="B150" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C150" t="s" s="3">
+      <c r="C150" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D150" t="s" s="3">
+      <c r="D150" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E150" t="s" s="3">
+      <c r="E150" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F150" t="s" s="3">
+      <c r="F150" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G150" t="s" s="3">
+      <c r="G150" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H150" t="s" s="3">
+      <c r="H150" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I150" t="s" s="3">
+      <c r="I150" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4525,10 +4549,10 @@
       <c r="I152">
         <f>((C152-C151)^2+(D152- D151)^2)^.5</f>
       </c>
-      <c r="J152" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K152" s="3" t="s">
+      <c r="J152" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K152" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L152" t="n">
@@ -4572,28 +4596,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="s" s="3">
+      <c r="A154" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B154" t="s" s="3">
+      <c r="B154" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C154" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D154" t="s" s="3">
+      <c r="C154" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D154" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E154" t="s" s="3">
+      <c r="E154" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F154" t="s" s="3">
+      <c r="F154" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G154" t="s" s="3">
+      <c r="G154" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H154" t="s" s="3">
+      <c r="H154" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4618,28 +4642,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="B156" t="s" s="3">
+      <c r="B156" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C156" t="s" s="3">
+      <c r="C156" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D156" t="s" s="3">
+      <c r="D156" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E156" t="s" s="3">
+      <c r="E156" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F156" t="s" s="3">
+      <c r="F156" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G156" t="s" s="3">
+      <c r="G156" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H156" t="s" s="3">
+      <c r="H156" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I156" t="s" s="3">
+      <c r="I156" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4698,10 +4722,10 @@
       <c r="I158">
         <f>((C158-C157)^2+(D158- D157)^2)^.5</f>
       </c>
-      <c r="J158" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K158" s="3" t="s">
+      <c r="J158" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K158" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L158" t="n">
@@ -4745,28 +4769,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="s" s="3">
+      <c r="A160" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B160" t="s" s="3">
+      <c r="B160" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C160" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D160" t="s" s="3">
+      <c r="C160" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D160" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E160" t="s" s="3">
+      <c r="E160" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F160" t="s" s="3">
+      <c r="F160" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G160" t="s" s="3">
+      <c r="G160" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H160" t="s" s="3">
+      <c r="H160" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4791,28 +4815,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="B162" t="s" s="3">
+      <c r="B162" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C162" t="s" s="3">
+      <c r="C162" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D162" t="s" s="3">
+      <c r="D162" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E162" t="s" s="3">
+      <c r="E162" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F162" t="s" s="3">
+      <c r="F162" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G162" t="s" s="3">
+      <c r="G162" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H162" t="s" s="3">
+      <c r="H162" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I162" t="s" s="3">
+      <c r="I162" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4871,10 +4895,10 @@
       <c r="I164">
         <f>((C164-C163)^2+(D164- D163)^2)^.5</f>
       </c>
-      <c r="J164" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K164" s="3" t="s">
+      <c r="J164" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K164" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L164" t="n">
@@ -4918,28 +4942,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="s" s="3">
+      <c r="A166" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B166" t="s" s="3">
+      <c r="B166" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C166" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D166" t="s" s="3">
+      <c r="C166" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D166" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E166" t="s" s="3">
+      <c r="E166" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F166" t="s" s="3">
+      <c r="F166" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G166" t="s" s="3">
+      <c r="G166" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H166" t="s" s="3">
+      <c r="H166" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4964,28 +4988,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="B168" t="s" s="3">
+      <c r="B168" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C168" t="s" s="3">
+      <c r="C168" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D168" t="s" s="3">
+      <c r="D168" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E168" t="s" s="3">
+      <c r="E168" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F168" t="s" s="3">
+      <c r="F168" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G168" t="s" s="3">
+      <c r="G168" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H168" t="s" s="3">
+      <c r="H168" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I168" t="s" s="3">
+      <c r="I168" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5073,10 +5097,10 @@
       <c r="I171">
         <f>((C171-C170)^2+(D171- D170)^2)^.5</f>
       </c>
-      <c r="J171" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K171" s="3" t="s">
+      <c r="J171" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K171" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L171" t="n">
@@ -5120,28 +5144,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="s" s="3">
+      <c r="A173" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B173" t="s" s="3">
+      <c r="B173" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C173" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D173" t="s" s="3">
+      <c r="C173" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D173" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E173" t="s" s="3">
+      <c r="E173" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F173" t="s" s="3">
+      <c r="F173" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G173" t="s" s="3">
+      <c r="G173" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H173" t="s" s="3">
+      <c r="H173" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5166,28 +5190,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="B175" t="s" s="3">
+      <c r="B175" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C175" t="s" s="3">
+      <c r="C175" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D175" t="s" s="3">
+      <c r="D175" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E175" t="s" s="3">
+      <c r="E175" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F175" t="s" s="3">
+      <c r="F175" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G175" t="s" s="3">
+      <c r="G175" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H175" t="s" s="3">
+      <c r="H175" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I175" t="s" s="3">
+      <c r="I175" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5246,10 +5270,10 @@
       <c r="I177">
         <f>((C177-C176)^2+(D177- D176)^2)^.5</f>
       </c>
-      <c r="J177" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K177" s="3" t="s">
+      <c r="J177" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K177" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L177" t="n">
@@ -5293,28 +5317,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="s" s="3">
+      <c r="A179" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B179" t="s" s="3">
+      <c r="B179" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C179" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D179" t="s" s="3">
+      <c r="C179" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D179" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E179" t="s" s="3">
+      <c r="E179" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F179" t="s" s="3">
+      <c r="F179" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G179" t="s" s="3">
+      <c r="G179" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H179" t="s" s="3">
+      <c r="H179" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5339,28 +5363,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="B181" t="s" s="3">
+      <c r="B181" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C181" t="s" s="3">
+      <c r="C181" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D181" t="s" s="3">
+      <c r="D181" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E181" t="s" s="3">
+      <c r="E181" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F181" t="s" s="3">
+      <c r="F181" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G181" t="s" s="3">
+      <c r="G181" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H181" t="s" s="3">
+      <c r="H181" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I181" t="s" s="3">
+      <c r="I181" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5419,10 +5443,10 @@
       <c r="I183">
         <f>((C183-C182)^2+(D183- D182)^2)^.5</f>
       </c>
-      <c r="J183" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K183" s="3" t="s">
+      <c r="J183" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K183" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L183" t="n">
@@ -5466,28 +5490,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="s" s="3">
+      <c r="A185" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B185" t="s" s="3">
+      <c r="B185" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C185" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D185" t="s" s="3">
+      <c r="C185" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D185" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E185" t="s" s="3">
+      <c r="E185" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F185" t="s" s="3">
+      <c r="F185" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G185" t="s" s="3">
+      <c r="G185" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H185" t="s" s="3">
+      <c r="H185" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5512,28 +5536,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="B187" t="s" s="3">
+      <c r="B187" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C187" t="s" s="3">
+      <c r="C187" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D187" t="s" s="3">
+      <c r="D187" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E187" t="s" s="3">
+      <c r="E187" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F187" t="s" s="3">
+      <c r="F187" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G187" t="s" s="3">
+      <c r="G187" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H187" t="s" s="3">
+      <c r="H187" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I187" t="s" s="3">
+      <c r="I187" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5592,10 +5616,10 @@
       <c r="I189">
         <f>((C189-C188)^2+(D189- D188)^2)^.5</f>
       </c>
-      <c r="J189" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K189" s="3" t="s">
+      <c r="J189" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K189" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L189" t="n">
@@ -5639,28 +5663,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="s" s="3">
+      <c r="A191" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B191" t="s" s="3">
+      <c r="B191" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C191" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D191" t="s" s="3">
+      <c r="C191" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D191" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E191" t="s" s="3">
+      <c r="E191" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F191" t="s" s="3">
+      <c r="F191" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G191" t="s" s="3">
+      <c r="G191" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H191" t="s" s="3">
+      <c r="H191" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5685,28 +5709,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="B193" t="s" s="3">
+      <c r="B193" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C193" t="s" s="3">
+      <c r="C193" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D193" t="s" s="3">
+      <c r="D193" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E193" t="s" s="3">
+      <c r="E193" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F193" t="s" s="3">
+      <c r="F193" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G193" t="s" s="3">
+      <c r="G193" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H193" t="s" s="3">
+      <c r="H193" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I193" t="s" s="3">
+      <c r="I193" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5765,10 +5789,10 @@
       <c r="I195">
         <f>((C195-C194)^2+(D195- D194)^2)^.5</f>
       </c>
-      <c r="J195" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K195" s="3" t="s">
+      <c r="J195" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K195" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L195" t="n">
@@ -5812,28 +5836,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="s" s="3">
+      <c r="A197" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B197" t="s" s="3">
+      <c r="B197" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C197" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D197" t="s" s="3">
+      <c r="C197" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D197" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E197" t="s" s="3">
+      <c r="E197" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F197" t="s" s="3">
+      <c r="F197" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G197" t="s" s="3">
+      <c r="G197" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H197" t="s" s="3">
+      <c r="H197" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5858,28 +5882,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="B199" t="s" s="3">
+      <c r="B199" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C199" t="s" s="3">
+      <c r="C199" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D199" t="s" s="3">
+      <c r="D199" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E199" t="s" s="3">
+      <c r="E199" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F199" t="s" s="3">
+      <c r="F199" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G199" t="s" s="3">
+      <c r="G199" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H199" t="s" s="3">
+      <c r="H199" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I199" t="s" s="3">
+      <c r="I199" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5938,10 +5962,10 @@
       <c r="I201">
         <f>((C201-C200)^2+(D201- D200)^2)^.5</f>
       </c>
-      <c r="J201" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K201" s="3" t="s">
+      <c r="J201" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K201" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L201" t="n">
@@ -5985,28 +6009,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="s" s="3">
+      <c r="A203" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B203" t="s" s="3">
+      <c r="B203" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C203" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D203" t="s" s="3">
+      <c r="C203" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D203" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E203" t="s" s="3">
+      <c r="E203" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F203" t="s" s="3">
+      <c r="F203" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G203" t="s" s="3">
+      <c r="G203" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H203" t="s" s="3">
+      <c r="H203" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6031,28 +6055,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="B205" t="s" s="3">
+      <c r="B205" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C205" t="s" s="3">
+      <c r="C205" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D205" t="s" s="3">
+      <c r="D205" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E205" t="s" s="3">
+      <c r="E205" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F205" t="s" s="3">
+      <c r="F205" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G205" t="s" s="3">
+      <c r="G205" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H205" t="s" s="3">
+      <c r="H205" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I205" t="s" s="3">
+      <c r="I205" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6111,10 +6135,10 @@
       <c r="I207">
         <f>((C207-C206)^2+(D207- D206)^2)^.5</f>
       </c>
-      <c r="J207" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K207" s="3" t="s">
+      <c r="J207" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K207" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L207" t="n">
@@ -6158,28 +6182,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="s" s="3">
+      <c r="A209" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B209" t="s" s="3">
+      <c r="B209" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C209" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D209" t="s" s="3">
+      <c r="C209" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D209" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E209" t="s" s="3">
+      <c r="E209" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F209" t="s" s="3">
+      <c r="F209" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G209" t="s" s="3">
+      <c r="G209" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H209" t="s" s="3">
+      <c r="H209" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6204,28 +6228,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="B211" t="s" s="3">
+      <c r="B211" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C211" t="s" s="3">
+      <c r="C211" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D211" t="s" s="3">
+      <c r="D211" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E211" t="s" s="3">
+      <c r="E211" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F211" t="s" s="3">
+      <c r="F211" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G211" t="s" s="3">
+      <c r="G211" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H211" t="s" s="3">
+      <c r="H211" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I211" t="s" s="3">
+      <c r="I211" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6342,10 +6366,10 @@
       <c r="I215">
         <f>((C215-C214)^2+(D215- D214)^2)^.5</f>
       </c>
-      <c r="J215" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K215" s="3" t="s">
+      <c r="J215" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K215" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L215" t="n">
@@ -6389,28 +6413,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="s" s="3">
+      <c r="A217" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B217" t="s" s="3">
+      <c r="B217" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C217" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D217" t="s" s="3">
+      <c r="C217" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D217" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E217" t="s" s="3">
+      <c r="E217" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F217" t="s" s="3">
+      <c r="F217" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G217" t="s" s="3">
+      <c r="G217" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H217" t="s" s="3">
+      <c r="H217" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6435,28 +6459,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="B219" t="s" s="3">
+      <c r="B219" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C219" t="s" s="3">
+      <c r="C219" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D219" t="s" s="3">
+      <c r="D219" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E219" t="s" s="3">
+      <c r="E219" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F219" t="s" s="3">
+      <c r="F219" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G219" t="s" s="3">
+      <c r="G219" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H219" t="s" s="3">
+      <c r="H219" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I219" t="s" s="3">
+      <c r="I219" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6515,10 +6539,10 @@
       <c r="I221">
         <f>((C221-C220)^2+(D221- D220)^2)^.5</f>
       </c>
-      <c r="J221" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K221" s="3" t="s">
+      <c r="J221" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K221" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L221" t="n">
@@ -6562,28 +6586,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="s" s="3">
+      <c r="A223" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B223" t="s" s="3">
+      <c r="B223" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C223" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D223" t="s" s="3">
+      <c r="C223" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D223" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E223" t="s" s="3">
+      <c r="E223" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F223" t="s" s="3">
+      <c r="F223" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G223" t="s" s="3">
+      <c r="G223" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H223" t="s" s="3">
+      <c r="H223" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6608,28 +6632,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="B225" t="s" s="3">
+      <c r="B225" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C225" t="s" s="3">
+      <c r="C225" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D225" t="s" s="3">
+      <c r="D225" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E225" t="s" s="3">
+      <c r="E225" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F225" t="s" s="3">
+      <c r="F225" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G225" t="s" s="3">
+      <c r="G225" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H225" t="s" s="3">
+      <c r="H225" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I225" t="s" s="3">
+      <c r="I225" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6688,10 +6712,10 @@
       <c r="I227">
         <f>((C227-C226)^2+(D227- D226)^2)^.5</f>
       </c>
-      <c r="J227" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K227" s="3" t="s">
+      <c r="J227" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K227" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L227" t="n">
@@ -6735,28 +6759,28 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="s" s="3">
+      <c r="A229" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B229" t="s" s="3">
+      <c r="B229" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C229" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D229" t="s" s="3">
+      <c r="C229" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D229" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E229" t="s" s="3">
+      <c r="E229" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F229" t="s" s="3">
+      <c r="F229" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G229" t="s" s="3">
+      <c r="G229" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H229" t="s" s="3">
+      <c r="H229" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6781,28 +6805,28 @@
       </c>
     </row>
     <row r="231">
-      <c r="B231" t="s" s="3">
+      <c r="B231" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C231" t="s" s="3">
+      <c r="C231" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D231" t="s" s="3">
+      <c r="D231" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E231" t="s" s="3">
+      <c r="E231" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F231" t="s" s="3">
+      <c r="F231" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G231" t="s" s="3">
+      <c r="G231" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H231" t="s" s="3">
+      <c r="H231" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I231" t="s" s="3">
+      <c r="I231" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6861,10 +6885,10 @@
       <c r="I233">
         <f>((C233-C232)^2+(D233- D232)^2)^.5</f>
       </c>
-      <c r="J233" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K233" s="3" t="s">
+      <c r="J233" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K233" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L233" t="n">
@@ -6908,28 +6932,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="s" s="3">
+      <c r="A235" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B235" t="s" s="3">
+      <c r="B235" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C235" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D235" t="s" s="3">
+      <c r="C235" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D235" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E235" t="s" s="3">
+      <c r="E235" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F235" t="s" s="3">
+      <c r="F235" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G235" t="s" s="3">
+      <c r="G235" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H235" t="s" s="3">
+      <c r="H235" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6954,28 +6978,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="B237" t="s" s="3">
+      <c r="B237" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C237" t="s" s="3">
+      <c r="C237" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D237" t="s" s="3">
+      <c r="D237" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E237" t="s" s="3">
+      <c r="E237" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F237" t="s" s="3">
+      <c r="F237" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G237" t="s" s="3">
+      <c r="G237" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H237" t="s" s="3">
+      <c r="H237" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I237" t="s" s="3">
+      <c r="I237" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7034,10 +7058,10 @@
       <c r="I239">
         <f>((C239-C238)^2+(D239- D238)^2)^.5</f>
       </c>
-      <c r="J239" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K239" s="3" t="s">
+      <c r="J239" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K239" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L239" t="n">
@@ -7081,28 +7105,28 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="s" s="3">
+      <c r="A241" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B241" t="s" s="3">
+      <c r="B241" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C241" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D241" t="s" s="3">
+      <c r="C241" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D241" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E241" t="s" s="3">
+      <c r="E241" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F241" t="s" s="3">
+      <c r="F241" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G241" t="s" s="3">
+      <c r="G241" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H241" t="s" s="3">
+      <c r="H241" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7127,28 +7151,28 @@
       </c>
     </row>
     <row r="243">
-      <c r="B243" t="s" s="3">
+      <c r="B243" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C243" t="s" s="3">
+      <c r="C243" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D243" t="s" s="3">
+      <c r="D243" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E243" t="s" s="3">
+      <c r="E243" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F243" t="s" s="3">
+      <c r="F243" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G243" t="s" s="3">
+      <c r="G243" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H243" t="s" s="3">
+      <c r="H243" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I243" t="s" s="3">
+      <c r="I243" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7207,10 +7231,10 @@
       <c r="I245">
         <f>((C245-C244)^2+(D245- D244)^2)^.5</f>
       </c>
-      <c r="J245" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K245" s="3" t="s">
+      <c r="J245" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K245" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L245" t="n">
@@ -7254,28 +7278,28 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="s" s="3">
+      <c r="A247" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B247" t="s" s="3">
+      <c r="B247" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C247" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D247" t="s" s="3">
+      <c r="C247" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D247" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E247" t="s" s="3">
+      <c r="E247" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F247" t="s" s="3">
+      <c r="F247" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G247" t="s" s="3">
+      <c r="G247" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H247" t="s" s="3">
+      <c r="H247" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7300,28 +7324,28 @@
       </c>
     </row>
     <row r="249">
-      <c r="B249" t="s" s="3">
+      <c r="B249" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C249" t="s" s="3">
+      <c r="C249" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D249" t="s" s="3">
+      <c r="D249" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E249" t="s" s="3">
+      <c r="E249" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F249" t="s" s="3">
+      <c r="F249" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G249" t="s" s="3">
+      <c r="G249" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H249" t="s" s="3">
+      <c r="H249" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I249" t="s" s="3">
+      <c r="I249" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7380,10 +7404,10 @@
       <c r="I251">
         <f>((C251-C250)^2+(D251- D250)^2)^.5</f>
       </c>
-      <c r="J251" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K251" s="3" t="s">
+      <c r="J251" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K251" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L251" t="n">
@@ -7427,28 +7451,28 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="s" s="3">
+      <c r="A253" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B253" t="s" s="3">
+      <c r="B253" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C253" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D253" t="s" s="3">
+      <c r="C253" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D253" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E253" t="s" s="3">
+      <c r="E253" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F253" t="s" s="3">
+      <c r="F253" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G253" t="s" s="3">
+      <c r="G253" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H253" t="s" s="3">
+      <c r="H253" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7473,28 +7497,28 @@
       </c>
     </row>
     <row r="255">
-      <c r="B255" t="s" s="3">
+      <c r="B255" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C255" t="s" s="3">
+      <c r="C255" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D255" t="s" s="3">
+      <c r="D255" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E255" t="s" s="3">
+      <c r="E255" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F255" t="s" s="3">
+      <c r="F255" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G255" t="s" s="3">
+      <c r="G255" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H255" t="s" s="3">
+      <c r="H255" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I255" t="s" s="3">
+      <c r="I255" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7553,10 +7577,10 @@
       <c r="I257">
         <f>((C257-C256)^2+(D257- D256)^2)^.5</f>
       </c>
-      <c r="J257" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K257" s="3" t="s">
+      <c r="J257" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K257" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L257" t="n">
@@ -7600,28 +7624,28 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="s" s="3">
+      <c r="A259" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B259" t="s" s="3">
+      <c r="B259" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C259" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D259" t="s" s="3">
+      <c r="C259" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D259" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E259" t="s" s="3">
+      <c r="E259" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F259" t="s" s="3">
+      <c r="F259" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G259" t="s" s="3">
+      <c r="G259" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H259" t="s" s="3">
+      <c r="H259" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7646,28 +7670,28 @@
       </c>
     </row>
     <row r="261">
-      <c r="B261" t="s" s="3">
+      <c r="B261" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C261" t="s" s="3">
+      <c r="C261" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D261" t="s" s="3">
+      <c r="D261" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E261" t="s" s="3">
+      <c r="E261" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F261" t="s" s="3">
+      <c r="F261" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G261" t="s" s="3">
+      <c r="G261" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H261" t="s" s="3">
+      <c r="H261" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I261" t="s" s="3">
+      <c r="I261" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7726,10 +7750,10 @@
       <c r="I263">
         <f>((C263-C262)^2+(D263- D262)^2)^.5</f>
       </c>
-      <c r="J263" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K263" s="3" t="s">
+      <c r="J263" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K263" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L263" t="n">
@@ -7773,28 +7797,28 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" t="s" s="3">
+      <c r="A265" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B265" t="s" s="3">
+      <c r="B265" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C265" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D265" t="s" s="3">
+      <c r="C265" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D265" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E265" t="s" s="3">
+      <c r="E265" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F265" t="s" s="3">
+      <c r="F265" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G265" t="s" s="3">
+      <c r="G265" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H265" t="s" s="3">
+      <c r="H265" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7819,28 +7843,28 @@
       </c>
     </row>
     <row r="267">
-      <c r="B267" t="s" s="3">
+      <c r="B267" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C267" t="s" s="3">
+      <c r="C267" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D267" t="s" s="3">
+      <c r="D267" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E267" t="s" s="3">
+      <c r="E267" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F267" t="s" s="3">
+      <c r="F267" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G267" t="s" s="3">
+      <c r="G267" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H267" t="s" s="3">
+      <c r="H267" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I267" t="s" s="3">
+      <c r="I267" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7899,10 +7923,10 @@
       <c r="I269">
         <f>((C269-C268)^2+(D269- D268)^2)^.5</f>
       </c>
-      <c r="J269" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K269" s="3" t="s">
+      <c r="J269" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K269" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L269" t="n">
@@ -7946,28 +7970,28 @@
       </c>
     </row>
     <row r="271">
-      <c r="A271" t="s" s="3">
+      <c r="A271" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B271" t="s" s="3">
+      <c r="B271" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C271" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D271" t="s" s="3">
+      <c r="C271" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D271" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E271" t="s" s="3">
+      <c r="E271" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F271" t="s" s="3">
+      <c r="F271" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G271" t="s" s="3">
+      <c r="G271" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H271" t="s" s="3">
+      <c r="H271" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7992,28 +8016,28 @@
       </c>
     </row>
     <row r="273">
-      <c r="B273" t="s" s="3">
+      <c r="B273" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C273" t="s" s="3">
+      <c r="C273" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D273" t="s" s="3">
+      <c r="D273" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E273" t="s" s="3">
+      <c r="E273" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F273" t="s" s="3">
+      <c r="F273" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G273" t="s" s="3">
+      <c r="G273" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H273" t="s" s="3">
+      <c r="H273" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I273" t="s" s="3">
+      <c r="I273" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -8072,10 +8096,10 @@
       <c r="I275">
         <f>((C275-C274)^2+(D275- D274)^2)^.5</f>
       </c>
-      <c r="J275" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K275" s="3" t="s">
+      <c r="J275" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K275" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L275" t="n">
@@ -8119,28 +8143,28 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" t="s" s="3">
+      <c r="A277" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B277" t="s" s="3">
+      <c r="B277" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C277" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D277" t="s" s="3">
+      <c r="C277" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D277" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E277" t="s" s="3">
+      <c r="E277" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F277" t="s" s="3">
+      <c r="F277" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G277" t="s" s="3">
+      <c r="G277" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H277" t="s" s="3">
+      <c r="H277" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -8165,28 +8189,28 @@
       </c>
     </row>
     <row r="279">
-      <c r="B279" t="s" s="3">
+      <c r="B279" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C279" t="s" s="3">
+      <c r="C279" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D279" t="s" s="3">
+      <c r="D279" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E279" t="s" s="3">
+      <c r="E279" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F279" t="s" s="3">
+      <c r="F279" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G279" t="s" s="3">
+      <c r="G279" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H279" t="s" s="3">
+      <c r="H279" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I279" t="s" s="3">
+      <c r="I279" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -8245,10 +8269,10 @@
       <c r="I281">
         <f>((C281-C280)^2+(D281- D280)^2)^.5</f>
       </c>
-      <c r="J281" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K281" s="3" t="s">
+      <c r="J281" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K281" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L281" t="n">
@@ -8292,28 +8316,28 @@
       </c>
     </row>
     <row r="283">
-      <c r="A283" t="s" s="3">
+      <c r="A283" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B283" t="s" s="3">
+      <c r="B283" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C283" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D283" t="s" s="3">
+      <c r="C283" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D283" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E283" t="s" s="3">
+      <c r="E283" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F283" t="s" s="3">
+      <c r="F283" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G283" t="s" s="3">
+      <c r="G283" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H283" t="s" s="3">
+      <c r="H283" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -8338,28 +8362,28 @@
       </c>
     </row>
     <row r="285">
-      <c r="B285" t="s" s="3">
+      <c r="B285" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C285" t="s" s="3">
+      <c r="C285" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D285" t="s" s="3">
+      <c r="D285" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E285" t="s" s="3">
+      <c r="E285" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F285" t="s" s="3">
+      <c r="F285" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G285" t="s" s="3">
+      <c r="G285" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H285" t="s" s="3">
+      <c r="H285" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I285" t="s" s="3">
+      <c r="I285" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -8418,10 +8442,10 @@
       <c r="I287">
         <f>((C287-C286)^2+(D287- D286)^2)^.5</f>
       </c>
-      <c r="J287" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K287" s="3" t="s">
+      <c r="J287" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K287" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L287" t="n">
@@ -8465,28 +8489,28 @@
       </c>
     </row>
     <row r="289">
-      <c r="A289" t="s" s="3">
+      <c r="A289" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B289" t="s" s="3">
+      <c r="B289" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C289" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D289" t="s" s="3">
+      <c r="C289" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D289" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E289" t="s" s="3">
+      <c r="E289" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F289" t="s" s="3">
+      <c r="F289" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G289" t="s" s="3">
+      <c r="G289" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H289" t="s" s="3">
+      <c r="H289" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -8511,28 +8535,28 @@
       </c>
     </row>
     <row r="291">
-      <c r="B291" t="s" s="3">
+      <c r="B291" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C291" t="s" s="3">
+      <c r="C291" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D291" t="s" s="3">
+      <c r="D291" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E291" t="s" s="3">
+      <c r="E291" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F291" t="s" s="3">
+      <c r="F291" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G291" t="s" s="3">
+      <c r="G291" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H291" t="s" s="3">
+      <c r="H291" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I291" t="s" s="3">
+      <c r="I291" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -8591,10 +8615,10 @@
       <c r="I293">
         <f>((C293-C292)^2+(D293- D292)^2)^.5</f>
       </c>
-      <c r="J293" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K293" s="3" t="s">
+      <c r="J293" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K293" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L293" t="n">
@@ -8638,28 +8662,28 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" t="s" s="3">
+      <c r="A295" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B295" t="s" s="3">
+      <c r="B295" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C295" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D295" t="s" s="3">
+      <c r="C295" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D295" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E295" t="s" s="3">
+      <c r="E295" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F295" t="s" s="3">
+      <c r="F295" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G295" t="s" s="3">
+      <c r="G295" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H295" t="s" s="3">
+      <c r="H295" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -8684,28 +8708,28 @@
       </c>
     </row>
     <row r="297">
-      <c r="B297" t="s" s="3">
+      <c r="B297" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C297" t="s" s="3">
+      <c r="C297" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D297" t="s" s="3">
+      <c r="D297" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E297" t="s" s="3">
+      <c r="E297" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F297" t="s" s="3">
+      <c r="F297" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G297" t="s" s="3">
+      <c r="G297" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H297" t="s" s="3">
+      <c r="H297" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I297" t="s" s="3">
+      <c r="I297" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -8764,10 +8788,10 @@
       <c r="I299">
         <f>((C299-C298)^2+(D299- D298)^2)^.5</f>
       </c>
-      <c r="J299" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K299" s="3" t="s">
+      <c r="J299" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K299" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L299" t="n">
@@ -8811,28 +8835,28 @@
       </c>
     </row>
     <row r="301">
-      <c r="A301" t="s" s="3">
+      <c r="A301" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B301" t="s" s="3">
+      <c r="B301" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C301" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D301" t="s" s="3">
+      <c r="C301" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D301" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E301" t="s" s="3">
+      <c r="E301" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F301" t="s" s="3">
+      <c r="F301" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G301" t="s" s="3">
+      <c r="G301" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H301" t="s" s="3">
+      <c r="H301" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -8857,28 +8881,28 @@
       </c>
     </row>
     <row r="303">
-      <c r="B303" t="s" s="3">
+      <c r="B303" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C303" t="s" s="3">
+      <c r="C303" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D303" t="s" s="3">
+      <c r="D303" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E303" t="s" s="3">
+      <c r="E303" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F303" t="s" s="3">
+      <c r="F303" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G303" t="s" s="3">
+      <c r="G303" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H303" t="s" s="3">
+      <c r="H303" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I303" t="s" s="3">
+      <c r="I303" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -8937,10 +8961,10 @@
       <c r="I305">
         <f>((C305-C304)^2+(D305- D304)^2)^.5</f>
       </c>
-      <c r="J305" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K305" s="3" t="s">
+      <c r="J305" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K305" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L305" t="n">
@@ -8984,28 +9008,28 @@
       </c>
     </row>
     <row r="307">
-      <c r="A307" t="s" s="3">
+      <c r="A307" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B307" t="s" s="3">
+      <c r="B307" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C307" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D307" t="s" s="3">
+      <c r="C307" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D307" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E307" t="s" s="3">
+      <c r="E307" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F307" t="s" s="3">
+      <c r="F307" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G307" t="s" s="3">
+      <c r="G307" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H307" t="s" s="3">
+      <c r="H307" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -9030,28 +9054,28 @@
       </c>
     </row>
     <row r="309">
-      <c r="B309" t="s" s="3">
+      <c r="B309" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C309" t="s" s="3">
+      <c r="C309" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D309" t="s" s="3">
+      <c r="D309" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E309" t="s" s="3">
+      <c r="E309" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F309" t="s" s="3">
+      <c r="F309" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G309" t="s" s="3">
+      <c r="G309" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H309" t="s" s="3">
+      <c r="H309" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I309" t="s" s="3">
+      <c r="I309" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -9110,10 +9134,10 @@
       <c r="I311">
         <f>((C311-C310)^2+(D311- D310)^2)^.5</f>
       </c>
-      <c r="J311" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K311" s="3" t="s">
+      <c r="J311" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K311" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L311" t="n">
@@ -9157,28 +9181,28 @@
       </c>
     </row>
     <row r="313">
-      <c r="A313" t="s" s="3">
+      <c r="A313" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B313" t="s" s="3">
+      <c r="B313" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C313" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D313" t="s" s="3">
+      <c r="C313" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D313" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E313" t="s" s="3">
+      <c r="E313" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F313" t="s" s="3">
+      <c r="F313" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G313" t="s" s="3">
+      <c r="G313" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H313" t="s" s="3">
+      <c r="H313" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -9203,28 +9227,28 @@
       </c>
     </row>
     <row r="315">
-      <c r="B315" t="s" s="3">
+      <c r="B315" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C315" t="s" s="3">
+      <c r="C315" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D315" t="s" s="3">
+      <c r="D315" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E315" t="s" s="3">
+      <c r="E315" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F315" t="s" s="3">
+      <c r="F315" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G315" t="s" s="3">
+      <c r="G315" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H315" t="s" s="3">
+      <c r="H315" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I315" t="s" s="3">
+      <c r="I315" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -9283,10 +9307,10 @@
       <c r="I317">
         <f>((C317-C316)^2+(D317- D316)^2)^.5</f>
       </c>
-      <c r="J317" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K317" s="3" t="s">
+      <c r="J317" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K317" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L317" t="n">
@@ -9330,28 +9354,28 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" t="s" s="3">
+      <c r="A319" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B319" t="s" s="3">
+      <c r="B319" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C319" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D319" t="s" s="3">
+      <c r="C319" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D319" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E319" t="s" s="3">
+      <c r="E319" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F319" t="s" s="3">
+      <c r="F319" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G319" t="s" s="3">
+      <c r="G319" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H319" t="s" s="3">
+      <c r="H319" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -9376,28 +9400,28 @@
       </c>
     </row>
     <row r="321">
-      <c r="B321" t="s" s="3">
+      <c r="B321" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C321" t="s" s="3">
+      <c r="C321" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D321" t="s" s="3">
+      <c r="D321" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E321" t="s" s="3">
+      <c r="E321" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F321" t="s" s="3">
+      <c r="F321" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G321" t="s" s="3">
+      <c r="G321" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H321" t="s" s="3">
+      <c r="H321" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I321" t="s" s="3">
+      <c r="I321" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -9456,10 +9480,10 @@
       <c r="I323">
         <f>((C323-C322)^2+(D323- D322)^2)^.5</f>
       </c>
-      <c r="J323" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K323" s="3" t="s">
+      <c r="J323" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K323" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L323" t="n">
@@ -9503,28 +9527,28 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" t="s" s="3">
+      <c r="A325" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B325" t="s" s="3">
+      <c r="B325" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C325" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D325" t="s" s="3">
+      <c r="C325" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D325" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E325" t="s" s="3">
+      <c r="E325" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F325" t="s" s="3">
+      <c r="F325" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G325" t="s" s="3">
+      <c r="G325" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H325" t="s" s="3">
+      <c r="H325" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -9549,28 +9573,28 @@
       </c>
     </row>
     <row r="327">
-      <c r="B327" t="s" s="3">
+      <c r="B327" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C327" t="s" s="3">
+      <c r="C327" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D327" t="s" s="3">
+      <c r="D327" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E327" t="s" s="3">
+      <c r="E327" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F327" t="s" s="3">
+      <c r="F327" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G327" t="s" s="3">
+      <c r="G327" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H327" t="s" s="3">
+      <c r="H327" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I327" t="s" s="3">
+      <c r="I327" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -9629,10 +9653,10 @@
       <c r="I329">
         <f>((C329-C328)^2+(D329- D328)^2)^.5</f>
       </c>
-      <c r="J329" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K329" s="3" t="s">
+      <c r="J329" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K329" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L329" t="n">
@@ -9676,28 +9700,28 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" t="s" s="3">
+      <c r="A331" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B331" t="s" s="3">
+      <c r="B331" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C331" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D331" t="s" s="3">
+      <c r="C331" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D331" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E331" t="s" s="3">
+      <c r="E331" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F331" t="s" s="3">
+      <c r="F331" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G331" t="s" s="3">
+      <c r="G331" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H331" t="s" s="3">
+      <c r="H331" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -9722,28 +9746,28 @@
       </c>
     </row>
     <row r="333">
-      <c r="B333" t="s" s="3">
+      <c r="B333" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C333" t="s" s="3">
+      <c r="C333" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D333" t="s" s="3">
+      <c r="D333" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E333" t="s" s="3">
+      <c r="E333" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F333" t="s" s="3">
+      <c r="F333" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G333" t="s" s="3">
+      <c r="G333" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H333" t="s" s="3">
+      <c r="H333" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I333" t="s" s="3">
+      <c r="I333" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -9802,10 +9826,10 @@
       <c r="I335">
         <f>((C335-C334)^2+(D335- D334)^2)^.5</f>
       </c>
-      <c r="J335" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K335" s="3" t="s">
+      <c r="J335" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K335" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L335" t="n">
@@ -9849,28 +9873,28 @@
       </c>
     </row>
     <row r="337">
-      <c r="A337" t="s" s="3">
+      <c r="A337" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B337" t="s" s="3">
+      <c r="B337" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C337" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D337" t="s" s="3">
+      <c r="C337" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D337" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E337" t="s" s="3">
+      <c r="E337" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F337" t="s" s="3">
+      <c r="F337" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G337" t="s" s="3">
+      <c r="G337" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H337" t="s" s="3">
+      <c r="H337" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -9895,28 +9919,28 @@
       </c>
     </row>
     <row r="339">
-      <c r="B339" t="s" s="3">
+      <c r="B339" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C339" t="s" s="3">
+      <c r="C339" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D339" t="s" s="3">
+      <c r="D339" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E339" t="s" s="3">
+      <c r="E339" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F339" t="s" s="3">
+      <c r="F339" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G339" t="s" s="3">
+      <c r="G339" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H339" t="s" s="3">
+      <c r="H339" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I339" t="s" s="3">
+      <c r="I339" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -9975,10 +9999,10 @@
       <c r="I341">
         <f>((C341-C340)^2+(D341- D340)^2)^.5</f>
       </c>
-      <c r="J341" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K341" s="3" t="s">
+      <c r="J341" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K341" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L341" t="n">
@@ -10022,28 +10046,28 @@
       </c>
     </row>
     <row r="343">
-      <c r="A343" t="s" s="3">
+      <c r="A343" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B343" t="s" s="3">
+      <c r="B343" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C343" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D343" t="s" s="3">
+      <c r="C343" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D343" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E343" t="s" s="3">
+      <c r="E343" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F343" t="s" s="3">
+      <c r="F343" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G343" t="s" s="3">
+      <c r="G343" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H343" t="s" s="3">
+      <c r="H343" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -10068,28 +10092,28 @@
       </c>
     </row>
     <row r="345">
-      <c r="B345" t="s" s="3">
+      <c r="B345" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C345" t="s" s="3">
+      <c r="C345" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D345" t="s" s="3">
+      <c r="D345" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E345" t="s" s="3">
+      <c r="E345" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F345" t="s" s="3">
+      <c r="F345" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G345" t="s" s="3">
+      <c r="G345" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H345" t="s" s="3">
+      <c r="H345" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I345" t="s" s="3">
+      <c r="I345" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -10148,10 +10172,10 @@
       <c r="I347">
         <f>((C347-C346)^2+(D347- D346)^2)^.5</f>
       </c>
-      <c r="J347" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K347" s="3" t="s">
+      <c r="J347" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K347" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L347" t="n">
@@ -10195,28 +10219,28 @@
       </c>
     </row>
     <row r="349">
-      <c r="A349" t="s" s="3">
+      <c r="A349" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B349" t="s" s="3">
+      <c r="B349" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C349" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D349" t="s" s="3">
+      <c r="C349" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D349" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E349" t="s" s="3">
+      <c r="E349" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F349" t="s" s="3">
+      <c r="F349" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G349" t="s" s="3">
+      <c r="G349" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H349" t="s" s="3">
+      <c r="H349" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -10241,28 +10265,28 @@
       </c>
     </row>
     <row r="351">
-      <c r="B351" t="s" s="3">
+      <c r="B351" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C351" t="s" s="3">
+      <c r="C351" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D351" t="s" s="3">
+      <c r="D351" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E351" t="s" s="3">
+      <c r="E351" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F351" t="s" s="3">
+      <c r="F351" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G351" t="s" s="3">
+      <c r="G351" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H351" t="s" s="3">
+      <c r="H351" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I351" t="s" s="3">
+      <c r="I351" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -10321,10 +10345,10 @@
       <c r="I353">
         <f>((C353-C352)^2+(D353- D352)^2)^.5</f>
       </c>
-      <c r="J353" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K353" s="3" t="s">
+      <c r="J353" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K353" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L353" t="n">
@@ -10368,28 +10392,28 @@
       </c>
     </row>
     <row r="355">
-      <c r="A355" t="s" s="3">
+      <c r="A355" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B355" t="s" s="3">
+      <c r="B355" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C355" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D355" t="s" s="3">
+      <c r="C355" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D355" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E355" t="s" s="3">
+      <c r="E355" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F355" t="s" s="3">
+      <c r="F355" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G355" t="s" s="3">
+      <c r="G355" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H355" t="s" s="3">
+      <c r="H355" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -10414,28 +10438,28 @@
       </c>
     </row>
     <row r="357">
-      <c r="B357" t="s" s="3">
+      <c r="B357" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C357" t="s" s="3">
+      <c r="C357" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D357" t="s" s="3">
+      <c r="D357" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E357" t="s" s="3">
+      <c r="E357" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F357" t="s" s="3">
+      <c r="F357" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G357" t="s" s="3">
+      <c r="G357" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H357" t="s" s="3">
+      <c r="H357" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I357" t="s" s="3">
+      <c r="I357" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -10494,10 +10518,10 @@
       <c r="I359">
         <f>((C359-C358)^2+(D359- D358)^2)^.5</f>
       </c>
-      <c r="J359" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K359" s="3" t="s">
+      <c r="J359" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K359" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L359" t="n">
@@ -10541,28 +10565,28 @@
       </c>
     </row>
     <row r="361">
-      <c r="A361" t="s" s="3">
+      <c r="A361" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B361" t="s" s="3">
+      <c r="B361" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C361" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D361" t="s" s="3">
+      <c r="C361" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D361" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E361" t="s" s="3">
+      <c r="E361" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F361" t="s" s="3">
+      <c r="F361" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G361" t="s" s="3">
+      <c r="G361" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H361" t="s" s="3">
+      <c r="H361" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -10587,28 +10611,28 @@
       </c>
     </row>
     <row r="363">
-      <c r="B363" t="s" s="3">
+      <c r="B363" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C363" t="s" s="3">
+      <c r="C363" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D363" t="s" s="3">
+      <c r="D363" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E363" t="s" s="3">
+      <c r="E363" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F363" t="s" s="3">
+      <c r="F363" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G363" t="s" s="3">
+      <c r="G363" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H363" t="s" s="3">
+      <c r="H363" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I363" t="s" s="3">
+      <c r="I363" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -10667,10 +10691,10 @@
       <c r="I365">
         <f>((C365-C364)^2+(D365- D364)^2)^.5</f>
       </c>
-      <c r="J365" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K365" s="3" t="s">
+      <c r="J365" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K365" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L365" t="n">
@@ -10714,28 +10738,28 @@
       </c>
     </row>
     <row r="367">
-      <c r="A367" t="s" s="3">
+      <c r="A367" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B367" t="s" s="3">
+      <c r="B367" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C367" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D367" t="s" s="3">
+      <c r="C367" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D367" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E367" t="s" s="3">
+      <c r="E367" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F367" t="s" s="3">
+      <c r="F367" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G367" t="s" s="3">
+      <c r="G367" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H367" t="s" s="3">
+      <c r="H367" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -10760,28 +10784,28 @@
       </c>
     </row>
     <row r="369">
-      <c r="B369" t="s" s="3">
+      <c r="B369" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C369" t="s" s="3">
+      <c r="C369" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D369" t="s" s="3">
+      <c r="D369" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E369" t="s" s="3">
+      <c r="E369" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F369" t="s" s="3">
+      <c r="F369" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G369" t="s" s="3">
+      <c r="G369" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H369" t="s" s="3">
+      <c r="H369" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I369" t="s" s="3">
+      <c r="I369" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -10840,10 +10864,10 @@
       <c r="I371">
         <f>((C371-C370)^2+(D371- D370)^2)^.5</f>
       </c>
-      <c r="J371" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K371" s="3" t="s">
+      <c r="J371" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K371" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L371" t="n">
@@ -10887,28 +10911,28 @@
       </c>
     </row>
     <row r="373">
-      <c r="A373" t="s" s="3">
+      <c r="A373" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B373" t="s" s="3">
+      <c r="B373" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C373" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D373" t="s" s="3">
+      <c r="C373" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D373" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E373" t="s" s="3">
+      <c r="E373" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F373" t="s" s="3">
+      <c r="F373" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G373" t="s" s="3">
+      <c r="G373" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H373" t="s" s="3">
+      <c r="H373" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -10933,28 +10957,28 @@
       </c>
     </row>
     <row r="375">
-      <c r="B375" t="s" s="3">
+      <c r="B375" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C375" t="s" s="3">
+      <c r="C375" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D375" t="s" s="3">
+      <c r="D375" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E375" t="s" s="3">
+      <c r="E375" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F375" t="s" s="3">
+      <c r="F375" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G375" t="s" s="3">
+      <c r="G375" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H375" t="s" s="3">
+      <c r="H375" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I375" t="s" s="3">
+      <c r="I375" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -11013,10 +11037,10 @@
       <c r="I377">
         <f>((C377-C376)^2+(D377- D376)^2)^.5</f>
       </c>
-      <c r="J377" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K377" s="3" t="s">
+      <c r="J377" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K377" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L377" t="n">
@@ -11060,28 +11084,28 @@
       </c>
     </row>
     <row r="379">
-      <c r="A379" t="s" s="3">
+      <c r="A379" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B379" t="s" s="3">
+      <c r="B379" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C379" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D379" t="s" s="3">
+      <c r="C379" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D379" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E379" t="s" s="3">
+      <c r="E379" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F379" t="s" s="3">
+      <c r="F379" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G379" t="s" s="3">
+      <c r="G379" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H379" t="s" s="3">
+      <c r="H379" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -11106,28 +11130,28 @@
       </c>
     </row>
     <row r="381">
-      <c r="B381" t="s" s="3">
+      <c r="B381" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C381" t="s" s="3">
+      <c r="C381" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D381" t="s" s="3">
+      <c r="D381" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E381" t="s" s="3">
+      <c r="E381" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F381" t="s" s="3">
+      <c r="F381" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G381" t="s" s="3">
+      <c r="G381" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H381" t="s" s="3">
+      <c r="H381" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I381" t="s" s="3">
+      <c r="I381" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -11186,10 +11210,10 @@
       <c r="I383">
         <f>((C383-C382)^2+(D383- D382)^2)^.5</f>
       </c>
-      <c r="J383" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K383" s="3" t="s">
+      <c r="J383" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K383" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L383" t="n">
@@ -11233,28 +11257,28 @@
       </c>
     </row>
     <row r="385">
-      <c r="A385" t="s" s="3">
+      <c r="A385" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B385" t="s" s="3">
+      <c r="B385" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C385" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D385" t="s" s="3">
+      <c r="C385" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D385" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E385" t="s" s="3">
+      <c r="E385" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F385" t="s" s="3">
+      <c r="F385" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G385" t="s" s="3">
+      <c r="G385" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H385" t="s" s="3">
+      <c r="H385" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -11279,28 +11303,28 @@
       </c>
     </row>
     <row r="387">
-      <c r="B387" t="s" s="3">
+      <c r="B387" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C387" t="s" s="3">
+      <c r="C387" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D387" t="s" s="3">
+      <c r="D387" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E387" t="s" s="3">
+      <c r="E387" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F387" t="s" s="3">
+      <c r="F387" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G387" t="s" s="3">
+      <c r="G387" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H387" t="s" s="3">
+      <c r="H387" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I387" t="s" s="3">
+      <c r="I387" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -11359,10 +11383,10 @@
       <c r="I389">
         <f>((C389-C388)^2+(D389- D388)^2)^.5</f>
       </c>
-      <c r="J389" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K389" s="3" t="s">
+      <c r="J389" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K389" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L389" t="n">
@@ -11406,28 +11430,28 @@
       </c>
     </row>
     <row r="391">
-      <c r="A391" t="s" s="3">
+      <c r="A391" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B391" t="s" s="3">
+      <c r="B391" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C391" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D391" t="s" s="3">
+      <c r="C391" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D391" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E391" t="s" s="3">
+      <c r="E391" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F391" t="s" s="3">
+      <c r="F391" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G391" t="s" s="3">
+      <c r="G391" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H391" t="s" s="3">
+      <c r="H391" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -11452,28 +11476,28 @@
       </c>
     </row>
     <row r="393">
-      <c r="B393" t="s" s="3">
+      <c r="B393" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C393" t="s" s="3">
+      <c r="C393" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D393" t="s" s="3">
+      <c r="D393" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E393" t="s" s="3">
+      <c r="E393" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F393" t="s" s="3">
+      <c r="F393" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G393" t="s" s="3">
+      <c r="G393" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H393" t="s" s="3">
+      <c r="H393" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I393" t="s" s="3">
+      <c r="I393" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -11532,10 +11556,10 @@
       <c r="I395">
         <f>((C395-C394)^2+(D395- D394)^2)^.5</f>
       </c>
-      <c r="J395" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K395" s="3" t="s">
+      <c r="J395" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K395" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L395" t="n">
@@ -11579,28 +11603,28 @@
       </c>
     </row>
     <row r="397">
-      <c r="A397" t="s" s="3">
+      <c r="A397" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B397" t="s" s="3">
+      <c r="B397" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C397" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D397" t="s" s="3">
+      <c r="C397" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D397" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E397" t="s" s="3">
+      <c r="E397" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F397" t="s" s="3">
+      <c r="F397" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G397" t="s" s="3">
+      <c r="G397" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H397" t="s" s="3">
+      <c r="H397" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -11625,28 +11649,28 @@
       </c>
     </row>
     <row r="399">
-      <c r="B399" t="s" s="3">
+      <c r="B399" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C399" t="s" s="3">
+      <c r="C399" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D399" t="s" s="3">
+      <c r="D399" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E399" t="s" s="3">
+      <c r="E399" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F399" t="s" s="3">
+      <c r="F399" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G399" t="s" s="3">
+      <c r="G399" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H399" t="s" s="3">
+      <c r="H399" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I399" t="s" s="3">
+      <c r="I399" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -11705,10 +11729,10 @@
       <c r="I401">
         <f>((C401-C400)^2+(D401- D400)^2)^.5</f>
       </c>
-      <c r="J401" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K401" s="3" t="s">
+      <c r="J401" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K401" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L401" t="n">
